--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52025AE-55F0-4095-AA0A-BCDA95736DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D818C-AC99-46AE-A31C-1E2EEBAB1520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Keras_Version" sheetId="1" r:id="rId1"/>
     <sheet name="Model_Description" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,7 +161,7 @@
     <t>MA_4</t>
   </si>
   <si>
-    <t>None</t>
+    <t>rot:30, hf:T, wsr:0.2, hsr:0.2, sr:20, zr:0.2</t>
   </si>
 </sst>
 </file>
@@ -307,15 +307,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,6 +324,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,23 +618,23 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
     <col min="6" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
     <col min="16" max="17" width="7.109375" style="1" customWidth="1"/>
@@ -645,289 +645,292 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="2:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="b">
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>50</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <v>110</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="6">
         <v>3.73</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="6">
         <v>3.72</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <v>99.8</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="6">
         <v>39.4</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="6">
         <v>39.1</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9" t="b">
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>150</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <v>324</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <v>0.25</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="6">
         <v>3.87</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="6">
         <v>3.98</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="6">
         <v>97</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="6">
         <v>34.4</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="b">
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>50</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="9" t="b">
+      <c r="G7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="12">
-        <v>50</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="K7" s="9">
+        <v>200</v>
+      </c>
+      <c r="L7" s="2">
+        <f>(147)</f>
+        <v>147</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1122,47 +1125,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D818C-AC99-46AE-A31C-1E2EEBAB1520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0D3A31-8FB0-42CC-9239-33056D6789D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -161,7 +161,13 @@
     <t>MA_4</t>
   </si>
   <si>
-    <t>rot:30, hf:T, wsr:0.2, hsr:0.2, sr:20, zr:0.2</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>rot:15, hf:T, wsr:0.1, hsr:0.1, sr:10, zr:0.2, csr: 10.0</t>
+  </si>
+  <si>
+    <t>[0.0, 0, 0]</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,9 +324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +621,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,32 +648,32 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="2:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -896,30 +899,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
+      <c r="G7" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>32</v>
+      <c r="I7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>13</v>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0D3A31-8FB0-42CC-9239-33056D6789D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BAE592-C616-4EAC-8A18-FA46F060F0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>Model</t>
   </si>
@@ -158,16 +158,61 @@
     <t>Killed run as val acc was flattening out at 33%</t>
   </si>
   <si>
-    <t>MA_4</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>rot:15, hf:T, wsr:0.1, hsr:0.1, sr:10, zr:0.2, csr: 10.0</t>
-  </si>
-  <si>
-    <t>[0.0, 0, 0]</t>
+    <t>MA_5</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>rot:10, hf:T, wsr:0.1, hsr:0.1, sr:10, zr:0.1, csr: 10.0</t>
+  </si>
+  <si>
+    <t>[0.2, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>1) Killed at 56 epochs as val_loss had flattened.</t>
+  </si>
+  <si>
+    <t>2.26 (Min was 1.39)</t>
+  </si>
+  <si>
+    <t>65 (best)</t>
+  </si>
+  <si>
+    <t>MA_6</t>
+  </si>
+  <si>
+    <t>rot:15, hf:T, wsr:0.2, hsr:0.2, sr:15, zr:0.2, csr: 20.0</t>
+  </si>
+  <si>
+    <t>rot:15, hf:T, wsr:0.1, hsr:0.1, sr:10, zr:0.1, csr: 10.0</t>
+  </si>
+  <si>
+    <t>[0.0, 0.5, 0.0]</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 48</t>
+  </si>
+  <si>
+    <t>MA_7</t>
+  </si>
+  <si>
+    <t>[0.2, 0.7, 0.2]</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 60</t>
+  </si>
+  <si>
+    <t>MA_8</t>
+  </si>
+  <si>
+    <t>[0.4, 0.7, 0.2]</t>
+  </si>
+  <si>
+    <t>Adam, 5e-4, 0, 10</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 93</t>
   </si>
 </sst>
 </file>
@@ -296,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,6 +381,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,7 +669,8 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,9 +680,10 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
@@ -904,7 +954,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>26</v>
@@ -912,14 +962,14 @@
       <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
+      <c r="G7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>46</v>
@@ -928,79 +978,200 @@
         <v>13</v>
       </c>
       <c r="K7" s="9">
-        <v>200</v>
-      </c>
-      <c r="L7" s="2">
-        <f>(147)</f>
-        <v>147</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="L7" s="9">
+        <v>180</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="9">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9">
+        <v>48</v>
+      </c>
+      <c r="L8" s="9">
+        <v>150</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.01</v>
+      </c>
+      <c r="P8" s="9">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>78</v>
+      </c>
+      <c r="R8" s="10">
+        <v>76</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="9">
+        <v>60</v>
+      </c>
+      <c r="L9" s="9">
+        <v>187</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="P9" s="9">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>77</v>
+      </c>
+      <c r="R9" s="9">
+        <v>76</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="9">
+        <v>93</v>
+      </c>
+      <c r="L10" s="9">
+        <v>295</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="9">
+        <v>92.5</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="R10" s="9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BAE592-C616-4EAC-8A18-FA46F060F0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB43F65-D824-4358-9FD4-479252FE3477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Model</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>1) Early stopping at epoch 93</t>
+  </si>
+  <si>
+    <t>MA_9</t>
+  </si>
+  <si>
+    <t>1) Started with imgaug</t>
+  </si>
+  <si>
+    <t>rot:15, hf:T, wsr:0.15, hsr:0.15, sr:15, zr:0.15</t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -374,6 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,7 +395,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,8 +681,8 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,32 +710,32 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="2:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -965,7 +977,7 @@
       <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="8" t="b">
@@ -1021,7 +1033,7 @@
       <c r="F8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="11" t="b">
@@ -1077,7 +1089,7 @@
       <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="11" t="b">
@@ -1133,7 +1145,7 @@
       <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="11" t="b">
@@ -1173,25 +1185,45 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+    <row r="11" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB43F65-D824-4358-9FD4-479252FE3477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B8844-06AD-485F-9974-A6BFF7CA00CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,9 +396,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,8 +681,8 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,32 +710,32 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="13" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="2:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -1213,15 +1213,15 @@
       <c r="J11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1247,8 +1247,8 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1270,11 +1270,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B8844-06AD-485F-9974-A6BFF7CA00CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E1EA3-57FC-4490-B534-8FF7EABC40A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keras_Version" sheetId="1" r:id="rId1"/>
     <sheet name="Model_Description" sheetId="2" r:id="rId2"/>
+    <sheet name="Augmentation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>Model</t>
   </si>
@@ -222,13 +223,987 @@
   </si>
   <si>
     <t>rot:15, hf:T, wsr:0.15, hsr:0.15, sr:15, zr:0.15</t>
+  </si>
+  <si>
+    <t>MA_10</t>
+  </si>
+  <si>
+    <t>                      )</t>
+  </si>
+  <si>
+    <t>                      ])</t>
+  </si>
+  <si>
+    <r>
+      <t>sometimes = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> aug: iaa.Sometimes(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, aug) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Augment only a certain percent of images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>seq = iaa.Sequential([iaa.size.Resize(size = mod_inp_shape[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>], interpolation = cv2.INTER_CUBIC),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      iaa.Fliplr(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      iaa.Affine(rotate=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      iaa.Affine(shear=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      iaa.Affine(translate_percent = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"x"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"y"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)}),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      iaa.Affine(scale = {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"x"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"y"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)}),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      sometimes(iaa.SomeOf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.AddToHueAndSaturation((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.Add((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), per_channel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.Multiply((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), per_channel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.GaussianBlur((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.ContrastNormalization((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), per_channel=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.Sharpen(alpha=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), lightness=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    iaa.Emboss(alpha=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), strength=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                                    ], random_order = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Aug_1</t>
+  </si>
+  <si>
+    <t>Loss weights</t>
+  </si>
+  <si>
+    <t>[0.5, 0.7, 0.3, 0.0, 0.4, 0.4, 0.2, 0.2]</t>
+  </si>
+  <si>
+    <t>Adam, 5e-4, redlr_plat, 0.2, 10</t>
+  </si>
+  <si>
+    <t>1:1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +1219,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF09885A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +1289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -346,11 +1377,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,8 +1503,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,11 +1826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S15"/>
+  <dimension ref="B1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:S14"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,21 +1843,22 @@
     <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="7.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.44140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="7.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>15</v>
       </c>
@@ -725,19 +1874,20 @@
       <c r="J2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="2:19" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -765,35 +1915,38 @@
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
@@ -821,35 +1974,36 @@
       <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>50</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>110</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>3.73</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>3.72</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>99.8</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>39.4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>39.1</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -877,35 +2031,36 @@
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6"/>
+      <c r="L5" s="8">
         <v>150</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>324</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <v>0.25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>3.87</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>3.98</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>97</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>34.4</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>31</v>
       </c>
@@ -933,11 +2088,9 @@
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6"/>
+      <c r="L6" s="9">
         <v>50</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>6</v>
@@ -958,10 +2111,13 @@
         <v>6</v>
       </c>
       <c r="S6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
@@ -989,35 +2145,36 @@
       <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6"/>
+      <c r="L7" s="9">
         <v>56</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>180</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>0.3</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="9">
         <v>90</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>50</v>
       </c>
@@ -1045,35 +2202,36 @@
       <c r="J8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6"/>
+      <c r="L8" s="9">
         <v>48</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>150</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>0.26</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>0.96</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>1.01</v>
       </c>
-      <c r="P8" s="9">
+      <c r="Q8" s="9">
         <v>92</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="R8" s="10">
         <v>78</v>
       </c>
-      <c r="R8" s="10">
+      <c r="S8" s="10">
         <v>76</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
@@ -1101,35 +2259,36 @@
       <c r="J9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6"/>
+      <c r="L9" s="9">
         <v>60</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>187</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>0.24</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>0.83</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>0.93</v>
       </c>
-      <c r="P9" s="9">
+      <c r="Q9" s="9">
         <v>92</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>77</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>76</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>58</v>
       </c>
@@ -1157,35 +2316,36 @@
       <c r="J10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6"/>
+      <c r="L10" s="9">
         <v>93</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <v>295</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="9">
         <v>0.23</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>0.75</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>0.8</v>
       </c>
-      <c r="P10" s="9">
+      <c r="Q10" s="9">
         <v>92.5</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <v>81.8</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>80.599999999999994</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>62</v>
       </c>
@@ -1213,7 +2373,7 @@
       <c r="J11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -1221,21 +2381,42 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+    <row r="12" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1244,74 +2425,81 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:T2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E12" location="Augmentation!B2" display="Aug_1" xr:uid="{ED982CAE-C36B-431F-BDDB-8097964C89A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1378,4 +2566,119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF4D207-2105-4506-8CC3-6049B9D3F1CC}">
+  <dimension ref="B1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="98.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934E1EA3-57FC-4490-B534-8FF7EABC40A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB28048-DADE-4D1D-BC81-FCB8E22F6036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>Model</t>
   </si>
@@ -1197,6 +1197,52 @@
   </si>
   <si>
     <t>1:1000</t>
+  </si>
+  <si>
+    <t>1) Results with finalmodel.h5</t>
+  </si>
+  <si>
+    <t>0.76 / 0.09 / 7e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62 / 0.69 / 9e-4  </t>
+  </si>
+  <si>
+    <t>1.52 / 0.66 / 9e-4</t>
+  </si>
+  <si>
+    <t>97 / 0.89</t>
+  </si>
+  <si>
+    <t>83 / 0.88</t>
+  </si>
+  <si>
+    <t>MB_01</t>
+  </si>
+  <si>
+    <t>DenseNet</t>
+  </si>
+  <si>
+    <t>[0.4, 0.7, 0.0, 0.0, 0.2, 0.2, 0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>DenseNet121</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 133
+2) Results with finalmodel.h5</t>
+  </si>
+  <si>
+    <t>0.78 / 0.113 / 7e-4</t>
+  </si>
+  <si>
+    <t>1.74 / 0.87 / 9e-4</t>
+  </si>
+  <si>
+    <t>1.55 / 0.7 / 8e-4</t>
+  </si>
+  <si>
+    <t>80 / 0.88</t>
   </si>
 </sst>
 </file>
@@ -1455,12 +1501,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,15 +1537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,12 +1564,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1543,6 +1571,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1828,9 +1868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,7 +1880,7 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
@@ -1852,643 +1892,699 @@
     <col min="15" max="15" width="6.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.44140625" style="1" customWidth="1"/>
     <col min="17" max="18" width="7.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="19.44140625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
     </row>
     <row r="3" spans="2:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5">
         <v>50</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>110</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>3.73</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>3.72</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>99.8</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>39.4</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>39.1</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8">
+      <c r="K5" s="5"/>
+      <c r="L5" s="7">
         <v>150</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>324</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>0.25</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>3.87</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>3.98</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>97</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>34.4</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="9">
+      <c r="K6" s="5"/>
+      <c r="L6" s="8">
         <v>50</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="8" t="b">
+      <c r="H7" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="9">
+      <c r="K7" s="5"/>
+      <c r="L7" s="8">
         <v>56</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>180</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>0.3</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>90</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11" t="b">
+      <c r="H8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="9">
+      <c r="K8" s="5"/>
+      <c r="L8" s="8">
         <v>48</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>150</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>0.26</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>0.96</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>1.01</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>92</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <v>78</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <v>76</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="11" t="b">
+      <c r="H9" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="9">
+      <c r="K9" s="5"/>
+      <c r="L9" s="8">
         <v>60</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>187</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>0.24</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>0.83</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>0.93</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>92</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>77</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>76</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11" t="b">
+      <c r="H10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="9">
+      <c r="K10" s="5"/>
+      <c r="L10" s="8">
         <v>93</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>295</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>0.23</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>0.75</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>92.5</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>81.8</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <v>80.599999999999994</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="11" t="b">
+      <c r="H11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="11" t="b">
+      <c r="H12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="L12" s="8">
+        <v>200</v>
+      </c>
+      <c r="M12" s="8">
+        <v>568</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="8">
+        <v>133</v>
+      </c>
+      <c r="M13" s="8">
+        <v>314</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2499,6 +2595,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E12" location="Augmentation!B2" display="Aug_1" xr:uid="{ED982CAE-C36B-431F-BDDB-8097964C89A0}"/>
+    <hyperlink ref="E13" location="Augmentation!B2" display="Aug_1" xr:uid="{9FA2B795-3521-427B-B7E9-F1CBD693A7BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2519,47 +2616,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2583,97 +2680,97 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB28048-DADE-4D1D-BC81-FCB8E22F6036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2976500-6AC0-476F-AC4D-BF8133DFAF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
   <si>
     <t>Model</t>
   </si>
@@ -216,18 +216,6 @@
     <t>1) Early stopping at epoch 93</t>
   </si>
   <si>
-    <t>MA_9</t>
-  </si>
-  <si>
-    <t>1) Started with imgaug</t>
-  </si>
-  <si>
-    <t>rot:15, hf:T, wsr:0.15, hsr:0.15, sr:15, zr:0.15</t>
-  </si>
-  <si>
-    <t>MA_10</t>
-  </si>
-  <si>
     <t>                      )</t>
   </si>
   <si>
@@ -1243,6 +1231,46 @@
   </si>
   <si>
     <t>80 / 0.88</t>
+  </si>
+  <si>
+    <t>MC_01</t>
+  </si>
+  <si>
+    <t>MA_01</t>
+  </si>
+  <si>
+    <t>EfficientNet</t>
+  </si>
+  <si>
+    <t>(400, 400)</t>
+  </si>
+  <si>
+    <t>EfficientNetB4</t>
+  </si>
+  <si>
+    <t>MD_01</t>
+  </si>
+  <si>
+    <t>0.33 / 0.005 / 3e-4</t>
+  </si>
+  <si>
+    <t>1.05 / 0.45 / 6e-4</t>
+  </si>
+  <si>
+    <t>99.8 / 0.92</t>
+  </si>
+  <si>
+    <t>91.6 / 0.91</t>
+  </si>
+  <si>
+    <t>0.94 / 0.42 / 5e-4</t>
+  </si>
+  <si>
+    <t>92.2 / 0.91</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 88.
+2) Results with finalmodel.h5</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1535,18 +1563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,19 +1884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
@@ -1899,33 +1915,33 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="25" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="2:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1955,8 +1971,8 @@
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>85</v>
+      <c r="K3" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>14</v>
@@ -2385,9 +2401,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>44</v>
@@ -2395,8 +2411,8 @@
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
+      <c r="E11" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>44</v>
@@ -2407,40 +2423,58 @@
       <c r="H11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
-        <v>65</v>
+      <c r="I11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="8">
+        <v>200</v>
+      </c>
+      <c r="M11" s="8">
+        <v>568</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>84</v>
+      <c r="E12" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>11</v>
@@ -2448,122 +2482,128 @@
       <c r="H12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>86</v>
+      <c r="I12" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="8">
+        <v>133</v>
+      </c>
+      <c r="M12" s="8">
+        <v>314</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="8">
+        <v>159</v>
+      </c>
+      <c r="M13" s="8">
+        <v>730</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="8">
         <v>88</v>
       </c>
-      <c r="L12" s="8">
-        <v>200</v>
-      </c>
-      <c r="M12" s="8">
-        <v>568</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="8">
-        <v>133</v>
-      </c>
-      <c r="M13" s="8">
-        <v>314</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="M14" s="8">
+        <v>450</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
@@ -2594,8 +2634,9 @@
     <mergeCell ref="N2:T2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E12" location="Augmentation!B2" display="Aug_1" xr:uid="{ED982CAE-C36B-431F-BDDB-8097964C89A0}"/>
-    <hyperlink ref="E13" location="Augmentation!B2" display="Aug_1" xr:uid="{9FA2B795-3521-427B-B7E9-F1CBD693A7BF}"/>
+    <hyperlink ref="E11" location="Augmentation!B2" display="Aug_1" xr:uid="{ED982CAE-C36B-431F-BDDB-8097964C89A0}"/>
+    <hyperlink ref="E12" location="Augmentation!B2" display="Aug_1" xr:uid="{9FA2B795-3521-427B-B7E9-F1CBD693A7BF}"/>
+    <hyperlink ref="E14" location="Augmentation!B2" display="Aug_1" xr:uid="{96D72D16-A3BE-4F53-BCD5-AF3BE52BD1DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2680,98 +2721,98 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>84</v>
+      <c r="B2" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>66</v>
+      <c r="B19" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>67</v>
+      <c r="B20" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2976500-6AC0-476F-AC4D-BF8133DFAF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA039EF-34A9-4C85-AC15-49F69D19BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>Model</t>
   </si>
@@ -1271,6 +1271,12 @@
   <si>
     <t>1) Early stopping at epoch 88.
 2) Results with finalmodel.h5</t>
+  </si>
+  <si>
+    <t>InceptionResNetV2</t>
+  </si>
+  <si>
+    <t>(500, 500)</t>
   </si>
 </sst>
 </file>
@@ -1884,9 +1890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1902,7 @@
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="12.21875" style="1" customWidth="1"/>
@@ -2519,32 +2525,50 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="L13" s="8">
         <v>159</v>
       </c>
       <c r="M13" s="8">
         <v>730</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
@@ -2637,6 +2661,7 @@
     <hyperlink ref="E11" location="Augmentation!B2" display="Aug_1" xr:uid="{ED982CAE-C36B-431F-BDDB-8097964C89A0}"/>
     <hyperlink ref="E12" location="Augmentation!B2" display="Aug_1" xr:uid="{9FA2B795-3521-427B-B7E9-F1CBD693A7BF}"/>
     <hyperlink ref="E14" location="Augmentation!B2" display="Aug_1" xr:uid="{96D72D16-A3BE-4F53-BCD5-AF3BE52BD1DF}"/>
+    <hyperlink ref="E13" location="Augmentation!B2" display="Aug_1" xr:uid="{C286F0CE-8086-41A0-8EBA-0DB7EE4D0C59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
+++ b/Deep_Learning/Computer_Vision/Image_Classification/Stanford_Cars_Dataset/Stanford_Cars_Dataset_Classification_Model_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User_Directories\Sync_With_NAS\Users\suresh\work\AIMLDL\GitHub_Repositories\Deep_Learning\Computer_Vision\Image_Classification\Stanford_Cars_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA039EF-34A9-4C85-AC15-49F69D19BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62941F64-4E6A-4E3E-9F41-373AE4FB0F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>Model</t>
   </si>
@@ -1277,6 +1277,28 @@
   </si>
   <si>
     <t>(500, 500)</t>
+  </si>
+  <si>
+    <t>0.56 / 0.06 / 5e-4</t>
+  </si>
+  <si>
+    <t>1.61 / 0.86 / 7e-4</t>
+  </si>
+  <si>
+    <t>1.52 / 0.78 / 7e-4</t>
+  </si>
+  <si>
+    <t>98.3 / 0.9</t>
+  </si>
+  <si>
+    <t>83.7 / 0.89</t>
+  </si>
+  <si>
+    <t>84.3 / 0.89</t>
+  </si>
+  <si>
+    <t>1) Early stopping at epoch 159. 
+2) Results with finalmodel.h5</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1913,8 @@
   <dimension ref="B1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13:T13"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,7 +2547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>100</v>
       </c>
@@ -2562,13 +2584,27 @@
       <c r="M13" s="8">
         <v>730</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
+      <c r="N13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="2:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
